--- a/BE.xlsx
+++ b/BE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAVO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\datos_2024\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8DFBE00-154A-4C0B-BAE2-B2420FF04B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1863B1-36EF-468E-AE90-4153D5610B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{63580D4E-C56E-4B7F-A59F-26F68F058F0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63580D4E-C56E-4B7F-A59F-26F68F058F0B}"/>
   </bookViews>
   <sheets>
     <sheet name="BE" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>IMP_A.COMPL.</t>
   </si>
   <si>
-    <t>DIF. CTA.</t>
-  </si>
-  <si>
     <t>P. IVA</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>CARRANZANI, MAGALLANES YAIRIAN</t>
+  </si>
+  <si>
+    <t>DIF_CTA</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,10 +816,10 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -827,22 +827,22 @@
         <v>27045326743</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1">
         <v>15745</v>
@@ -872,7 +872,7 @@
         <v>39832</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -880,22 +880,22 @@
         <v>27057232884</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>17500</v>
@@ -925,7 +925,7 @@
         <v>39840</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -933,22 +933,22 @@
         <v>23103522234</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>19074</v>
@@ -978,7 +978,7 @@
         <v>17601</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -986,22 +986,22 @@
         <v>23119251559</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>20460</v>
@@ -1031,7 +1031,7 @@
         <v>16763</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1039,22 +1039,22 @@
         <v>27166184652</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>23246</v>
@@ -1084,7 +1084,7 @@
         <v>19574</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1092,22 +1092,22 @@
         <v>20174645222</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1">
         <v>24038</v>
@@ -1137,7 +1137,7 @@
         <v>6216</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1145,22 +1145,22 @@
         <v>20183117514</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
         <v>24640</v>
@@ -1190,7 +1190,7 @@
         <v>12069</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1198,22 +1198,22 @@
         <v>23226211624</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
         <v>26470</v>
@@ -1243,7 +1243,7 @@
         <v>14456</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1251,22 +1251,22 @@
         <v>27236297549</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1">
         <v>26984</v>
@@ -1296,7 +1296,7 @@
         <v>11711</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1304,22 +1304,22 @@
         <v>27246681924</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <v>27704</v>
@@ -1349,7 +1349,7 @@
         <v>17057</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1357,22 +1357,22 @@
         <v>20273697439</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
         <v>28969</v>
@@ -1402,7 +1402,7 @@
         <v>13593</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1410,22 +1410,22 @@
         <v>23284013204</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1">
         <v>29490</v>
@@ -1455,7 +1455,7 @@
         <v>16004</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1463,22 +1463,22 @@
         <v>27299390379</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1">
         <v>30299</v>
@@ -1508,7 +1508,7 @@
         <v>10145</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1516,22 +1516,22 @@
         <v>20305844161</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1">
         <v>30632</v>
@@ -1561,7 +1561,7 @@
         <v>8331</v>
       </c>
       <c r="Q15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1569,22 +1569,22 @@
         <v>20306717740</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1">
         <v>30690</v>
@@ -1614,7 +1614,7 @@
         <v>12799</v>
       </c>
       <c r="Q16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1622,22 +1622,22 @@
         <v>27309727083</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1">
         <v>30964</v>
@@ -1667,7 +1667,7 @@
         <v>8884</v>
       </c>
       <c r="Q17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1675,22 +1675,22 @@
         <v>23326275964</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1">
         <v>31764</v>
@@ -1720,7 +1720,7 @@
         <v>9179</v>
       </c>
       <c r="Q18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1728,22 +1728,22 @@
         <v>20332768256</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
         <v>32037</v>
@@ -1773,7 +1773,7 @@
         <v>13030</v>
       </c>
       <c r="Q19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1781,22 +1781,22 @@
         <v>20332754883</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1">
         <v>32042</v>
@@ -1826,7 +1826,7 @@
         <v>10158</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1834,22 +1834,22 @@
         <v>27335789984</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
         <v>32204</v>
@@ -1879,7 +1879,7 @@
         <v>11440</v>
       </c>
       <c r="Q21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1887,22 +1887,22 @@
         <v>20334401724</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1">
         <v>32334</v>
@@ -1932,7 +1932,7 @@
         <v>9179</v>
       </c>
       <c r="Q22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1940,22 +1940,22 @@
         <v>27337618702</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1">
         <v>32502</v>
@@ -1985,7 +1985,7 @@
         <v>8454</v>
       </c>
       <c r="Q23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1993,22 +1993,22 @@
         <v>20344884553</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1">
         <v>32789</v>
@@ -2038,7 +2038,7 @@
         <v>12187</v>
       </c>
       <c r="Q24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2046,22 +2046,22 @@
         <v>27348540381</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1">
         <v>32796</v>
@@ -2091,7 +2091,7 @@
         <v>11582</v>
       </c>
       <c r="Q25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2099,22 +2099,22 @@
         <v>27347745540</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1">
         <v>32845</v>
@@ -2144,7 +2144,7 @@
         <v>12876</v>
       </c>
       <c r="Q26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2152,22 +2152,22 @@
         <v>20349177308</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1">
         <v>32940</v>
@@ -2197,7 +2197,7 @@
         <v>15394</v>
       </c>
       <c r="Q27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2205,22 +2205,22 @@
         <v>27350769922</v>
       </c>
       <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
         <v>48</v>
       </c>
-      <c r="C28">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1">
         <v>32981</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>14501</v>
       </c>
       <c r="Q28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2258,22 +2258,22 @@
         <v>27347861966</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1">
         <v>32991</v>
@@ -2303,7 +2303,7 @@
         <v>12876</v>
       </c>
       <c r="Q29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2311,22 +2311,22 @@
         <v>27348078874</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1">
         <v>33049</v>
@@ -2356,7 +2356,7 @@
         <v>9179</v>
       </c>
       <c r="Q30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2364,22 +2364,22 @@
         <v>27355129433</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1">
         <v>33075</v>
@@ -2409,7 +2409,7 @@
         <v>12187</v>
       </c>
       <c r="Q31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2417,22 +2417,22 @@
         <v>20355120628</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1">
         <v>33165</v>
@@ -2462,7 +2462,7 @@
         <v>8500</v>
       </c>
       <c r="Q32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2470,22 +2470,22 @@
         <v>20355159176</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1">
         <v>33189</v>
@@ -2515,7 +2515,7 @@
         <v>9693</v>
       </c>
       <c r="Q33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2523,22 +2523,22 @@
         <v>20355429386</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1">
         <v>33208</v>
@@ -2568,7 +2568,7 @@
         <v>9781</v>
       </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2576,22 +2576,22 @@
         <v>20355123341</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1">
         <v>33218</v>
@@ -2621,7 +2621,7 @@
         <v>9912</v>
       </c>
       <c r="Q35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2629,22 +2629,22 @@
         <v>27356618535</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1">
         <v>33225</v>
@@ -2674,7 +2674,7 @@
         <v>7506</v>
       </c>
       <c r="Q36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2682,22 +2682,22 @@
         <v>23356646169</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1">
         <v>33268</v>
@@ -2727,7 +2727,7 @@
         <v>9693</v>
       </c>
       <c r="Q37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2735,22 +2735,22 @@
         <v>27358753510</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1">
         <v>33336</v>
@@ -2780,7 +2780,7 @@
         <v>11620</v>
       </c>
       <c r="Q38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2788,22 +2788,22 @@
         <v>20359256486</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="1">
         <v>33416</v>
@@ -2833,7 +2833,7 @@
         <v>9693</v>
       </c>
       <c r="Q39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2841,22 +2841,22 @@
         <v>27365825144</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" s="1">
         <v>33582</v>
@@ -2886,7 +2886,7 @@
         <v>10529</v>
       </c>
       <c r="Q40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2894,22 +2894,22 @@
         <v>27367350240</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41">
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1">
         <v>33708</v>
@@ -2939,7 +2939,7 @@
         <v>9768</v>
       </c>
       <c r="Q41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2947,22 +2947,22 @@
         <v>27371374243</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1">
         <v>33824</v>
@@ -2992,7 +2992,7 @@
         <v>8454</v>
       </c>
       <c r="Q42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -3000,22 +3000,22 @@
         <v>20367681781</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43">
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1">
         <v>33837</v>
@@ -3045,7 +3045,7 @@
         <v>10572</v>
       </c>
       <c r="Q43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -3053,22 +3053,22 @@
         <v>20368503755</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44">
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1">
         <v>33869</v>
@@ -3098,7 +3098,7 @@
         <v>13555</v>
       </c>
       <c r="Q44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -3106,22 +3106,22 @@
         <v>27383364162</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45">
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1">
         <v>33923</v>
@@ -3151,7 +3151,7 @@
         <v>11535</v>
       </c>
       <c r="Q45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3159,22 +3159,22 @@
         <v>27370001001</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46">
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1">
         <v>33943</v>
@@ -3204,7 +3204,7 @@
         <v>9474</v>
       </c>
       <c r="Q46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3212,22 +3212,22 @@
         <v>27367695329</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1">
         <v>33948</v>
@@ -3257,7 +3257,7 @@
         <v>13160</v>
       </c>
       <c r="Q47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -3265,22 +3265,22 @@
         <v>27375190430</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1">
         <v>34080</v>
@@ -3310,7 +3310,7 @@
         <v>10071</v>
       </c>
       <c r="Q48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3318,22 +3318,22 @@
         <v>27376233672</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1">
         <v>34227</v>
@@ -3363,7 +3363,7 @@
         <v>12838</v>
       </c>
       <c r="Q49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3371,22 +3371,22 @@
         <v>20377786875</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50" s="1">
         <v>34275</v>
@@ -3416,7 +3416,7 @@
         <v>18897</v>
       </c>
       <c r="Q50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3424,22 +3424,22 @@
         <v>20379636129</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="1">
         <v>34280</v>
@@ -3469,7 +3469,7 @@
         <v>13900</v>
       </c>
       <c r="Q51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3477,22 +3477,22 @@
         <v>23365867224</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="1">
         <v>34310</v>
@@ -3522,7 +3522,7 @@
         <v>13900</v>
       </c>
       <c r="Q52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3530,22 +3530,22 @@
         <v>27375288678</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53">
         <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1">
         <v>34348</v>
@@ -3575,7 +3575,7 @@
         <v>15350</v>
       </c>
       <c r="Q53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3583,22 +3583,22 @@
         <v>20379657541</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54">
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1">
         <v>34405</v>
@@ -3628,7 +3628,7 @@
         <v>9781</v>
       </c>
       <c r="Q54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3636,22 +3636,22 @@
         <v>20383070415</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55">
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" s="1">
         <v>34500</v>
@@ -3681,7 +3681,7 @@
         <v>7200</v>
       </c>
       <c r="Q55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3689,22 +3689,22 @@
         <v>20382072651</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56">
         <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56" s="1">
         <v>34510</v>
@@ -3734,7 +3734,7 @@
         <v>10398</v>
       </c>
       <c r="Q56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3742,22 +3742,22 @@
         <v>20384161406</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57">
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H57" s="1">
         <v>34609</v>
@@ -3787,7 +3787,7 @@
         <v>7752</v>
       </c>
       <c r="Q57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3795,22 +3795,22 @@
         <v>20384763783</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58">
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1">
         <v>34647</v>
@@ -3840,7 +3840,7 @@
         <v>11709</v>
       </c>
       <c r="Q58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3848,22 +3848,22 @@
         <v>27392348854</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59">
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H59" s="1">
         <v>34907</v>
@@ -3893,7 +3893,7 @@
         <v>11858</v>
       </c>
       <c r="Q59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3901,22 +3901,22 @@
         <v>20390892706</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60" s="1">
         <v>34965</v>
@@ -3946,7 +3946,7 @@
         <v>7113</v>
       </c>
       <c r="Q60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3954,22 +3954,22 @@
         <v>20383354790</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H61" s="1">
         <v>34992</v>
@@ -3999,7 +3999,7 @@
         <v>11986</v>
       </c>
       <c r="Q61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -4007,22 +4007,22 @@
         <v>20393808102</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62">
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H62" s="1">
         <v>35006</v>
@@ -4052,7 +4052,7 @@
         <v>10308</v>
       </c>
       <c r="Q62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4060,22 +4060,22 @@
         <v>27392372720</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H63" s="1">
         <v>35016</v>
@@ -4105,7 +4105,7 @@
         <v>16832</v>
       </c>
       <c r="Q63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4113,22 +4113,22 @@
         <v>27393771289</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64">
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" s="1">
         <v>35028</v>
@@ -4158,7 +4158,7 @@
         <v>7733</v>
       </c>
       <c r="Q64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -4166,22 +4166,22 @@
         <v>23392393714</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65">
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" s="1">
         <v>35035</v>
@@ -4211,7 +4211,7 @@
         <v>7915</v>
       </c>
       <c r="Q65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4219,22 +4219,22 @@
         <v>20393774550</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66">
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H66" s="1">
         <v>35065</v>
@@ -4264,7 +4264,7 @@
         <v>10076</v>
       </c>
       <c r="Q66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4272,22 +4272,22 @@
         <v>20396794609</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67">
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" s="1">
         <v>35192</v>
@@ -4317,7 +4317,7 @@
         <v>7200</v>
       </c>
       <c r="Q67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4325,22 +4325,22 @@
         <v>23399530164</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68">
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H68" s="1">
         <v>35265</v>
@@ -4370,7 +4370,7 @@
         <v>9489</v>
       </c>
       <c r="Q68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4378,22 +4378,22 @@
         <v>20397986676</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69">
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H69" s="1">
         <v>35292</v>
@@ -4423,7 +4423,7 @@
         <v>10071</v>
       </c>
       <c r="Q69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4431,22 +4431,22 @@
         <v>27398426261</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" s="1">
         <v>35297</v>
@@ -4476,7 +4476,7 @@
         <v>10571</v>
       </c>
       <c r="Q70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4484,22 +4484,22 @@
         <v>20403715418</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71">
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H71" s="1">
         <v>35594</v>
@@ -4529,7 +4529,7 @@
         <v>13900</v>
       </c>
       <c r="Q71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4537,22 +4537,22 @@
         <v>27403715986</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72">
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" s="1">
         <v>35621</v>
@@ -4582,7 +4582,7 @@
         <v>14456</v>
       </c>
       <c r="Q72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4590,22 +4590,22 @@
         <v>27405593845</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="1">
         <v>36046</v>
@@ -4635,7 +4635,7 @@
         <v>8606</v>
       </c>
       <c r="Q73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4643,22 +4643,22 @@
         <v>20417520261</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74">
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H74" s="1">
         <v>36199</v>
@@ -4688,7 +4688,7 @@
         <v>10452</v>
       </c>
       <c r="Q74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4696,22 +4696,22 @@
         <v>27417529751</v>
       </c>
       <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
         <v>97</v>
-      </c>
-      <c r="C75">
-        <v>36</v>
-      </c>
-      <c r="D75" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>98</v>
       </c>
       <c r="H75" s="1">
         <v>36247</v>
@@ -4741,7 +4741,7 @@
         <v>12000</v>
       </c>
       <c r="Q75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4749,22 +4749,22 @@
         <v>27423577245</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76">
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H76" s="1">
         <v>36311</v>
@@ -4794,7 +4794,7 @@
         <v>9179</v>
       </c>
       <c r="Q76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4802,22 +4802,22 @@
         <v>27419671563</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77">
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77" s="1">
         <v>36313</v>
@@ -4847,7 +4847,7 @@
         <v>11671</v>
       </c>
       <c r="Q77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4855,22 +4855,22 @@
         <v>20422104527</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78">
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H78" s="1">
         <v>36464</v>
@@ -4900,7 +4900,7 @@
         <v>6823</v>
       </c>
       <c r="Q78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4908,22 +4908,22 @@
         <v>27427954396</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79">
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H79" s="1">
         <v>36744</v>
@@ -4953,7 +4953,7 @@
         <v>11440</v>
       </c>
       <c r="Q79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -4961,22 +4961,22 @@
         <v>27432786582</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80">
         <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H80" s="1">
         <v>36923</v>
@@ -5006,7 +5006,7 @@
         <v>6515</v>
       </c>
       <c r="Q80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -5014,22 +5014,22 @@
         <v>27431511121</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81">
         <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H81" s="1">
         <v>36963</v>
@@ -5059,7 +5059,7 @@
         <v>13900</v>
       </c>
       <c r="Q81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -5067,22 +5067,22 @@
         <v>27444371388</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" s="1">
         <v>37521</v>
@@ -5112,7 +5112,7 @@
         <v>11897</v>
       </c>
       <c r="Q82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -5120,22 +5120,22 @@
         <v>27455295594</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83">
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H83" s="1">
         <v>38040</v>
@@ -5165,7 +5165,7 @@
         <v>11440</v>
       </c>
       <c r="Q83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -5173,22 +5173,22 @@
         <v>27458760395</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84">
         <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H84" s="1">
         <v>38202</v>
@@ -5218,7 +5218,7 @@
         <v>6515</v>
       </c>
       <c r="Q84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -5226,22 +5226,22 @@
         <v>27497862421</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85">
         <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H85" s="1">
         <v>40083</v>
@@ -5271,7 +5271,7 @@
         <v>14021</v>
       </c>
       <c r="Q85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -5279,22 +5279,22 @@
         <v>20525176356</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86">
         <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H86" s="1">
         <v>41185</v>
@@ -5324,7 +5324,7 @@
         <v>12141</v>
       </c>
       <c r="Q86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -5332,22 +5332,22 @@
         <v>20552568509</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87">
         <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H87" s="1">
         <v>42390</v>
@@ -5377,7 +5377,7 @@
         <v>14021</v>
       </c>
       <c r="Q87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/BE.xlsx
+++ b/BE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\datos_2024\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1863B1-36EF-468E-AE90-4153D5610B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CCD81F-4095-48F4-A09C-97EE6B273245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63580D4E-C56E-4B7F-A59F-26F68F058F0B}"/>
   </bookViews>
@@ -41,33 +41,18 @@
     <t>CUIL</t>
   </si>
   <si>
-    <t>APELLIDO, NOMBRE</t>
-  </si>
-  <si>
     <t>DEP</t>
   </si>
   <si>
     <t>PLAN</t>
   </si>
   <si>
-    <t>LTRA. PLAN</t>
-  </si>
-  <si>
     <t>PAMI</t>
   </si>
   <si>
-    <t>P.CTA.</t>
-  </si>
-  <si>
-    <t>F.NACIMIENTO</t>
-  </si>
-  <si>
     <t>EDAD</t>
   </si>
   <si>
-    <t>CANT. FLIA.</t>
-  </si>
-  <si>
     <t>APORTE_TIT</t>
   </si>
   <si>
@@ -80,12 +65,6 @@
     <t>IMP_SEP</t>
   </si>
   <si>
-    <t>IMP_A.COMPL.</t>
-  </si>
-  <si>
-    <t>P. IVA</t>
-  </si>
-  <si>
     <t>MARQUEZ DA COSTA, ISABEL C.</t>
   </si>
   <si>
@@ -369,6 +348,27 @@
   </si>
   <si>
     <t>DIF_CTA</t>
+  </si>
+  <si>
+    <t>CANT_FLIA</t>
+  </si>
+  <si>
+    <t>LTRA_PLAN</t>
+  </si>
+  <si>
+    <t>APELLIDO_NOMBRE</t>
+  </si>
+  <si>
+    <t>P_CTA</t>
+  </si>
+  <si>
+    <t>F_NACIMIENTO</t>
+  </si>
+  <si>
+    <t>IMP_A_COMPL</t>
+  </si>
+  <si>
+    <t>P_IVA</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,52 +774,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="P1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" t="s">
         <v>110</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -827,22 +827,22 @@
         <v>27045326743</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1">
         <v>15745</v>
@@ -872,7 +872,7 @@
         <v>39832</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -880,22 +880,22 @@
         <v>27057232884</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>17500</v>
@@ -925,7 +925,7 @@
         <v>39840</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -933,22 +933,22 @@
         <v>23103522234</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1">
         <v>19074</v>
@@ -978,7 +978,7 @@
         <v>17601</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -986,22 +986,22 @@
         <v>23119251559</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
         <v>20460</v>
@@ -1031,7 +1031,7 @@
         <v>16763</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1039,22 +1039,22 @@
         <v>27166184652</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1">
         <v>23246</v>
@@ -1084,7 +1084,7 @@
         <v>19574</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1092,22 +1092,22 @@
         <v>20174645222</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1">
         <v>24038</v>
@@ -1137,7 +1137,7 @@
         <v>6216</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1145,22 +1145,22 @@
         <v>20183117514</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1">
         <v>24640</v>
@@ -1190,7 +1190,7 @@
         <v>12069</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1198,22 +1198,22 @@
         <v>23226211624</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
         <v>26470</v>
@@ -1243,7 +1243,7 @@
         <v>14456</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1251,22 +1251,22 @@
         <v>27236297549</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1">
         <v>26984</v>
@@ -1296,7 +1296,7 @@
         <v>11711</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1304,22 +1304,22 @@
         <v>27246681924</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1">
         <v>27704</v>
@@ -1349,7 +1349,7 @@
         <v>17057</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1357,22 +1357,22 @@
         <v>20273697439</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H12" s="1">
         <v>28969</v>
@@ -1402,7 +1402,7 @@
         <v>13593</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1410,22 +1410,22 @@
         <v>23284013204</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1">
         <v>29490</v>
@@ -1455,7 +1455,7 @@
         <v>16004</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1463,22 +1463,22 @@
         <v>27299390379</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H14" s="1">
         <v>30299</v>
@@ -1508,7 +1508,7 @@
         <v>10145</v>
       </c>
       <c r="Q14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1516,22 +1516,22 @@
         <v>20305844161</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H15" s="1">
         <v>30632</v>
@@ -1561,7 +1561,7 @@
         <v>8331</v>
       </c>
       <c r="Q15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1569,22 +1569,22 @@
         <v>20306717740</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1">
         <v>30690</v>
@@ -1614,7 +1614,7 @@
         <v>12799</v>
       </c>
       <c r="Q16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1622,22 +1622,22 @@
         <v>27309727083</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H17" s="1">
         <v>30964</v>
@@ -1667,7 +1667,7 @@
         <v>8884</v>
       </c>
       <c r="Q17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1675,22 +1675,22 @@
         <v>23326275964</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1">
         <v>31764</v>
@@ -1720,7 +1720,7 @@
         <v>9179</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1728,22 +1728,22 @@
         <v>20332768256</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H19" s="1">
         <v>32037</v>
@@ -1773,7 +1773,7 @@
         <v>13030</v>
       </c>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1781,22 +1781,22 @@
         <v>20332754883</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1">
         <v>32042</v>
@@ -1826,7 +1826,7 @@
         <v>10158</v>
       </c>
       <c r="Q20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1834,22 +1834,22 @@
         <v>27335789984</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H21" s="1">
         <v>32204</v>
@@ -1879,7 +1879,7 @@
         <v>11440</v>
       </c>
       <c r="Q21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1887,22 +1887,22 @@
         <v>20334401724</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1">
         <v>32334</v>
@@ -1932,7 +1932,7 @@
         <v>9179</v>
       </c>
       <c r="Q22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1940,22 +1940,22 @@
         <v>27337618702</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H23" s="1">
         <v>32502</v>
@@ -1985,7 +1985,7 @@
         <v>8454</v>
       </c>
       <c r="Q23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1993,22 +1993,22 @@
         <v>20344884553</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H24" s="1">
         <v>32789</v>
@@ -2038,7 +2038,7 @@
         <v>12187</v>
       </c>
       <c r="Q24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2046,22 +2046,22 @@
         <v>27348540381</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1">
         <v>32796</v>
@@ -2091,7 +2091,7 @@
         <v>11582</v>
       </c>
       <c r="Q25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2099,22 +2099,22 @@
         <v>27347745540</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1">
         <v>32845</v>
@@ -2144,7 +2144,7 @@
         <v>12876</v>
       </c>
       <c r="Q26" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2152,22 +2152,22 @@
         <v>20349177308</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1">
         <v>32940</v>
@@ -2197,7 +2197,7 @@
         <v>15394</v>
       </c>
       <c r="Q27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2205,22 +2205,22 @@
         <v>27350769922</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H28" s="1">
         <v>32981</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>14501</v>
       </c>
       <c r="Q28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2258,22 +2258,22 @@
         <v>27347861966</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1">
         <v>32991</v>
@@ -2303,7 +2303,7 @@
         <v>12876</v>
       </c>
       <c r="Q29" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2311,22 +2311,22 @@
         <v>27348078874</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1">
         <v>33049</v>
@@ -2356,7 +2356,7 @@
         <v>9179</v>
       </c>
       <c r="Q30" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2364,22 +2364,22 @@
         <v>27355129433</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1">
         <v>33075</v>
@@ -2409,7 +2409,7 @@
         <v>12187</v>
       </c>
       <c r="Q31" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2417,22 +2417,22 @@
         <v>20355120628</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H32" s="1">
         <v>33165</v>
@@ -2462,7 +2462,7 @@
         <v>8500</v>
       </c>
       <c r="Q32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2470,22 +2470,22 @@
         <v>20355159176</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1">
         <v>33189</v>
@@ -2515,7 +2515,7 @@
         <v>9693</v>
       </c>
       <c r="Q33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2523,22 +2523,22 @@
         <v>20355429386</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H34" s="1">
         <v>33208</v>
@@ -2568,7 +2568,7 @@
         <v>9781</v>
       </c>
       <c r="Q34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2576,22 +2576,22 @@
         <v>20355123341</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H35" s="1">
         <v>33218</v>
@@ -2621,7 +2621,7 @@
         <v>9912</v>
       </c>
       <c r="Q35" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2629,22 +2629,22 @@
         <v>27356618535</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H36" s="1">
         <v>33225</v>
@@ -2674,7 +2674,7 @@
         <v>7506</v>
       </c>
       <c r="Q36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2682,22 +2682,22 @@
         <v>23356646169</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H37" s="1">
         <v>33268</v>
@@ -2727,7 +2727,7 @@
         <v>9693</v>
       </c>
       <c r="Q37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2735,22 +2735,22 @@
         <v>27358753510</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H38" s="1">
         <v>33336</v>
@@ -2780,7 +2780,7 @@
         <v>11620</v>
       </c>
       <c r="Q38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2788,22 +2788,22 @@
         <v>20359256486</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1">
         <v>33416</v>
@@ -2833,7 +2833,7 @@
         <v>9693</v>
       </c>
       <c r="Q39" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2841,22 +2841,22 @@
         <v>27365825144</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1">
         <v>33582</v>
@@ -2886,7 +2886,7 @@
         <v>10529</v>
       </c>
       <c r="Q40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2894,22 +2894,22 @@
         <v>27367350240</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1">
         <v>33708</v>
@@ -2939,7 +2939,7 @@
         <v>9768</v>
       </c>
       <c r="Q41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2947,22 +2947,22 @@
         <v>27371374243</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1">
         <v>33824</v>
@@ -2992,7 +2992,7 @@
         <v>8454</v>
       </c>
       <c r="Q42" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -3000,22 +3000,22 @@
         <v>20367681781</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H43" s="1">
         <v>33837</v>
@@ -3045,7 +3045,7 @@
         <v>10572</v>
       </c>
       <c r="Q43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -3053,22 +3053,22 @@
         <v>20368503755</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H44" s="1">
         <v>33869</v>
@@ -3098,7 +3098,7 @@
         <v>13555</v>
       </c>
       <c r="Q44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -3106,22 +3106,22 @@
         <v>27383364162</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H45" s="1">
         <v>33923</v>
@@ -3151,7 +3151,7 @@
         <v>11535</v>
       </c>
       <c r="Q45" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3159,22 +3159,22 @@
         <v>27370001001</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1">
         <v>33943</v>
@@ -3204,7 +3204,7 @@
         <v>9474</v>
       </c>
       <c r="Q46" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3212,22 +3212,22 @@
         <v>27367695329</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1">
         <v>33948</v>
@@ -3257,7 +3257,7 @@
         <v>13160</v>
       </c>
       <c r="Q47" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -3265,22 +3265,22 @@
         <v>27375190430</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1">
         <v>34080</v>
@@ -3310,7 +3310,7 @@
         <v>10071</v>
       </c>
       <c r="Q48" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3318,22 +3318,22 @@
         <v>27376233672</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1">
         <v>34227</v>
@@ -3363,7 +3363,7 @@
         <v>12838</v>
       </c>
       <c r="Q49" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3371,22 +3371,22 @@
         <v>20377786875</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1">
         <v>34275</v>
@@ -3416,7 +3416,7 @@
         <v>18897</v>
       </c>
       <c r="Q50" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3424,22 +3424,22 @@
         <v>20379636129</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C51">
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H51" s="1">
         <v>34280</v>
@@ -3469,7 +3469,7 @@
         <v>13900</v>
       </c>
       <c r="Q51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3477,22 +3477,22 @@
         <v>23365867224</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C52">
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H52" s="1">
         <v>34310</v>
@@ -3522,7 +3522,7 @@
         <v>13900</v>
       </c>
       <c r="Q52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3530,22 +3530,22 @@
         <v>27375288678</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H53" s="1">
         <v>34348</v>
@@ -3575,7 +3575,7 @@
         <v>15350</v>
       </c>
       <c r="Q53" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3583,22 +3583,22 @@
         <v>20379657541</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1">
         <v>34405</v>
@@ -3628,7 +3628,7 @@
         <v>9781</v>
       </c>
       <c r="Q54" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3636,22 +3636,22 @@
         <v>20383070415</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1">
         <v>34500</v>
@@ -3681,7 +3681,7 @@
         <v>7200</v>
       </c>
       <c r="Q55" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3689,22 +3689,22 @@
         <v>20382072651</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C56">
         <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H56" s="1">
         <v>34510</v>
@@ -3734,7 +3734,7 @@
         <v>10398</v>
       </c>
       <c r="Q56" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3742,22 +3742,22 @@
         <v>20384161406</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C57">
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1">
         <v>34609</v>
@@ -3787,7 +3787,7 @@
         <v>7752</v>
       </c>
       <c r="Q57" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3795,22 +3795,22 @@
         <v>20384763783</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H58" s="1">
         <v>34647</v>
@@ -3840,7 +3840,7 @@
         <v>11709</v>
       </c>
       <c r="Q58" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3848,22 +3848,22 @@
         <v>27392348854</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C59">
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H59" s="1">
         <v>34907</v>
@@ -3893,7 +3893,7 @@
         <v>11858</v>
       </c>
       <c r="Q59" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3901,22 +3901,22 @@
         <v>20390892706</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H60" s="1">
         <v>34965</v>
@@ -3946,7 +3946,7 @@
         <v>7113</v>
       </c>
       <c r="Q60" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3954,22 +3954,22 @@
         <v>20383354790</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C61">
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H61" s="1">
         <v>34992</v>
@@ -3999,7 +3999,7 @@
         <v>11986</v>
       </c>
       <c r="Q61" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -4007,22 +4007,22 @@
         <v>20393808102</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C62">
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H62" s="1">
         <v>35006</v>
@@ -4052,7 +4052,7 @@
         <v>10308</v>
       </c>
       <c r="Q62" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4060,22 +4060,22 @@
         <v>27392372720</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C63">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H63" s="1">
         <v>35016</v>
@@ -4105,7 +4105,7 @@
         <v>16832</v>
       </c>
       <c r="Q63" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4113,22 +4113,22 @@
         <v>27393771289</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C64">
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H64" s="1">
         <v>35028</v>
@@ -4158,7 +4158,7 @@
         <v>7733</v>
       </c>
       <c r="Q64" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -4166,22 +4166,22 @@
         <v>23392393714</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C65">
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H65" s="1">
         <v>35035</v>
@@ -4211,7 +4211,7 @@
         <v>7915</v>
       </c>
       <c r="Q65" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4219,22 +4219,22 @@
         <v>20393774550</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C66">
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H66" s="1">
         <v>35065</v>
@@ -4264,7 +4264,7 @@
         <v>10076</v>
       </c>
       <c r="Q66" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4272,22 +4272,22 @@
         <v>20396794609</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C67">
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H67" s="1">
         <v>35192</v>
@@ -4317,7 +4317,7 @@
         <v>7200</v>
       </c>
       <c r="Q67" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4325,22 +4325,22 @@
         <v>23399530164</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C68">
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H68" s="1">
         <v>35265</v>
@@ -4370,7 +4370,7 @@
         <v>9489</v>
       </c>
       <c r="Q68" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4378,22 +4378,22 @@
         <v>20397986676</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C69">
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H69" s="1">
         <v>35292</v>
@@ -4423,7 +4423,7 @@
         <v>10071</v>
       </c>
       <c r="Q69" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4431,22 +4431,22 @@
         <v>27398426261</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C70">
         <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H70" s="1">
         <v>35297</v>
@@ -4476,7 +4476,7 @@
         <v>10571</v>
       </c>
       <c r="Q70" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4484,22 +4484,22 @@
         <v>20403715418</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C71">
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H71" s="1">
         <v>35594</v>
@@ -4529,7 +4529,7 @@
         <v>13900</v>
       </c>
       <c r="Q71" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4537,22 +4537,22 @@
         <v>27403715986</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C72">
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H72" s="1">
         <v>35621</v>
@@ -4582,7 +4582,7 @@
         <v>14456</v>
       </c>
       <c r="Q72" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4590,22 +4590,22 @@
         <v>27405593845</v>
       </c>
       <c r="B73" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C73">
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H73" s="1">
         <v>36046</v>
@@ -4635,7 +4635,7 @@
         <v>8606</v>
       </c>
       <c r="Q73" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4643,22 +4643,22 @@
         <v>20417520261</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1">
         <v>36199</v>
@@ -4688,7 +4688,7 @@
         <v>10452</v>
       </c>
       <c r="Q74" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4696,22 +4696,22 @@
         <v>27417529751</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C75">
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H75" s="1">
         <v>36247</v>
@@ -4741,7 +4741,7 @@
         <v>12000</v>
       </c>
       <c r="Q75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4749,22 +4749,22 @@
         <v>27423577245</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C76">
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H76" s="1">
         <v>36311</v>
@@ -4794,7 +4794,7 @@
         <v>9179</v>
       </c>
       <c r="Q76" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4802,22 +4802,22 @@
         <v>27419671563</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C77">
         <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H77" s="1">
         <v>36313</v>
@@ -4847,7 +4847,7 @@
         <v>11671</v>
       </c>
       <c r="Q77" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4855,22 +4855,22 @@
         <v>20422104527</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C78">
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H78" s="1">
         <v>36464</v>
@@ -4900,7 +4900,7 @@
         <v>6823</v>
       </c>
       <c r="Q78" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4908,22 +4908,22 @@
         <v>27427954396</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C79">
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H79" s="1">
         <v>36744</v>
@@ -4953,7 +4953,7 @@
         <v>11440</v>
       </c>
       <c r="Q79" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -4961,22 +4961,22 @@
         <v>27432786582</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C80">
         <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H80" s="1">
         <v>36923</v>
@@ -5006,7 +5006,7 @@
         <v>6515</v>
       </c>
       <c r="Q80" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -5014,22 +5014,22 @@
         <v>27431511121</v>
       </c>
       <c r="B81" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C81">
         <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H81" s="1">
         <v>36963</v>
@@ -5059,7 +5059,7 @@
         <v>13900</v>
       </c>
       <c r="Q81" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -5067,22 +5067,22 @@
         <v>27444371388</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C82">
         <v>30</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H82" s="1">
         <v>37521</v>
@@ -5112,7 +5112,7 @@
         <v>11897</v>
       </c>
       <c r="Q82" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -5120,22 +5120,22 @@
         <v>27455295594</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C83">
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H83" s="1">
         <v>38040</v>
@@ -5165,7 +5165,7 @@
         <v>11440</v>
       </c>
       <c r="Q83" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -5173,22 +5173,22 @@
         <v>27458760395</v>
       </c>
       <c r="B84" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C84">
         <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1">
         <v>38202</v>
@@ -5218,7 +5218,7 @@
         <v>6515</v>
       </c>
       <c r="Q84" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -5226,22 +5226,22 @@
         <v>27497862421</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C85">
         <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H85" s="1">
         <v>40083</v>
@@ -5271,7 +5271,7 @@
         <v>14021</v>
       </c>
       <c r="Q85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -5279,22 +5279,22 @@
         <v>20525176356</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C86">
         <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1">
         <v>41185</v>
@@ -5324,7 +5324,7 @@
         <v>12141</v>
       </c>
       <c r="Q86" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -5332,22 +5332,22 @@
         <v>20552568509</v>
       </c>
       <c r="B87" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C87">
         <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H87" s="1">
         <v>42390</v>
@@ -5377,7 +5377,7 @@
         <v>14021</v>
       </c>
       <c r="Q87" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BE.xlsx
+++ b/BE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\datos_2024\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CCD81F-4095-48F4-A09C-97EE6B273245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228871E-F96C-4A22-A44E-A95C701157F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63580D4E-C56E-4B7F-A59F-26F68F058F0B}"/>
   </bookViews>
